--- a/vertx-pin/zero-fm/src/main/resources/plugin/fm/oob/cab/fm.subject.xlsx
+++ b/vertx-pin/zero-fm/src/main/resources/plugin/fm/oob/cab/fm.subject.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-fm/src/main/resources/plugin/fm/oob/cab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF4AD01-D994-7341-B768-921995BC5DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FCB750-00B6-5146-8634-391F5E50DB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -407,10 +409,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>resource.basic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>modeGroup</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -623,6 +621,9 @@
   </si>
   <si>
     <t>95332e19-6a43-4254-8623-c4163fa59489</t>
+  </si>
+  <si>
+    <t>resource.fm</t>
   </si>
 </sst>
 </file>
@@ -905,28 +906,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -940,6 +920,27 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1285,7 +1286,7 @@
   <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD10"/>
+      <selection activeCell="F49" sqref="F49:F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -1308,129 +1309,129 @@
     <row r="1" spans="1:9">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:9" s="31" customFormat="1">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:9" s="24" customFormat="1">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+    </row>
+    <row r="3" spans="1:9" s="24" customFormat="1">
+      <c r="A3" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-    </row>
-    <row r="3" spans="1:9" s="31" customFormat="1">
-      <c r="A3" s="32" t="s">
+      <c r="B3" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="C3" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="D3" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="D3" s="32" t="s">
+    </row>
+    <row r="4" spans="1:9" s="24" customFormat="1">
+      <c r="A4" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="26" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" s="31" customFormat="1">
-      <c r="A4" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="33" t="s">
+      <c r="C4" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="D4" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="D4" s="33" t="s">
+    </row>
+    <row r="5" spans="1:9" s="24" customFormat="1">
+      <c r="A5" s="14" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" s="31" customFormat="1">
-      <c r="A5" s="14" t="s">
+      <c r="B5" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="D5" s="29" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="24" customFormat="1">
+      <c r="A6" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C6" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="D5" s="36" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="31" customFormat="1">
-      <c r="A6" s="14" t="s">
+    </row>
+    <row r="7" spans="1:9" s="24" customFormat="1">
+      <c r="A7" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B7" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C7" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="D6" s="36" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="31" customFormat="1">
-      <c r="A7" s="14" t="s">
+    </row>
+    <row r="8" spans="1:9" s="24" customFormat="1">
+      <c r="A8" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B8" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C8" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="D7" s="36" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="31" customFormat="1">
-      <c r="A8" s="14" t="s">
+    </row>
+    <row r="9" spans="1:9" s="24" customFormat="1">
+      <c r="A9" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B9" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C9" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="D8" s="36" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="31" customFormat="1">
-      <c r="A9" s="14" t="s">
+    </row>
+    <row r="10" spans="1:9" s="24" customFormat="1">
+      <c r="A10" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B10" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C10" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="D10" s="29" t="s">
         <v>184</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="31" customFormat="1">
-      <c r="A10" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1443,11 +1444,11 @@
       <c r="B13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="4"/>
       <c r="G13" s="2"/>
       <c r="I13" s="8"/>
@@ -1501,10 +1502,10 @@
         <v>59</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -1520,10 +1521,10 @@
         <v>61</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1539,10 +1540,10 @@
         <v>63</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1558,10 +1559,10 @@
         <v>64</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1577,10 +1578,10 @@
         <v>66</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1596,10 +1597,10 @@
         <v>68</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1611,15 +1612,15 @@
       <c r="B26" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10">
@@ -1693,13 +1694,13 @@
         <v>2791cfb4-7baa-47c6-bb52-5460d87ae2a1</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E29" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G29" s="16" t="s">
         <v>29</v>
@@ -1722,13 +1723,13 @@
         <v>795cdf39-6826-442c-ad06-c8bcbadd6da7</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>30</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G30" s="16" t="s">
         <v>31</v>
@@ -1751,13 +1752,13 @@
         <v>e160601b-0d95-4926-b963-1ac5cf202de3</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G31" s="16" t="s">
         <v>33</v>
@@ -1780,13 +1781,13 @@
         <v>2f91f975-ee1f-4e42-8f99-8bc79ad22551</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G32" s="16" t="s">
         <v>35</v>
@@ -1809,13 +1810,13 @@
         <v>2791cfb4-7baa-47c6-bb52-5460d87ae2a1</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>30</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G33" s="16" t="s">
         <v>36</v>
@@ -1838,13 +1839,13 @@
         <v>e160601b-0d95-4926-b963-1ac5cf202de3</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E34" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G34" s="16" t="s">
         <v>37</v>
@@ -1867,13 +1868,13 @@
         <v>2f91f975-ee1f-4e42-8f99-8bc79ad22551</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E35" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G35" s="16" t="s">
         <v>38</v>
@@ -1896,13 +1897,13 @@
         <v>2ee9fb2f-c4f8-4050-8482-5fadc22c8b66</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E36" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G36" s="16" t="s">
         <v>39</v>
@@ -1925,13 +1926,13 @@
         <v>2ee9fb2f-c4f8-4050-8482-5fadc22c8b66</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G37" s="16" t="s">
         <v>40</v>
@@ -1954,13 +1955,13 @@
         <v>2ee9fb2f-c4f8-4050-8482-5fadc22c8b66</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G38" s="16" t="s">
         <v>41</v>
@@ -1983,13 +1984,13 @@
         <v>2d0d2695-6ab1-458c-a90d-3828f751d6c9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>30</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G39" s="16" t="s">
         <v>42</v>
@@ -2012,13 +2013,13 @@
         <v>2d0d2695-6ab1-458c-a90d-3828f751d6c9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E40" s="16" t="s">
         <v>30</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G40" s="16" t="s">
         <v>43</v>
@@ -2041,13 +2042,13 @@
         <v>2791cfb4-7baa-47c6-bb52-5460d87ae2a1</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E41" s="16" t="s">
         <v>30</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G41" s="16" t="s">
         <v>44</v>
@@ -2070,13 +2071,13 @@
         <v>2791cfb4-7baa-47c6-bb52-5460d87ae2a1</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E42" s="16" t="s">
         <v>30</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G42" s="16" t="s">
         <v>45</v>
@@ -2099,13 +2100,13 @@
         <v>2791cfb4-7baa-47c6-bb52-5460d87ae2a1</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E43" s="16" t="s">
         <v>28</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G43" s="16" t="s">
         <v>56</v>
@@ -2140,15 +2141,15 @@
       <c r="B46" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C46" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
       <c r="J46" s="4"/>
     </row>
     <row r="47" spans="1:11">
@@ -2203,10 +2204,10 @@
         <v>26</v>
       </c>
       <c r="H48" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="I48" s="11" t="s">
         <v>124</v>
-      </c>
-      <c r="I48" s="11" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2220,13 +2221,13 @@
         <v>55</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>123</v>
+        <v>190</v>
       </c>
       <c r="G49" s="16">
         <v>1</v>
@@ -2245,13 +2246,13 @@
         <v>55</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>123</v>
+        <v>190</v>
       </c>
       <c r="G50" s="16">
         <v>4</v>
@@ -2270,13 +2271,13 @@
         <v>55</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>123</v>
+        <v>190</v>
       </c>
       <c r="G51" s="16">
         <v>8</v>
@@ -2295,13 +2296,13 @@
         <v>55</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>123</v>
+        <v>190</v>
       </c>
       <c r="G52" s="16">
         <v>12</v>
@@ -2320,13 +2321,13 @@
         <v>55</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>123</v>
+        <v>190</v>
       </c>
       <c r="G53" s="16">
         <v>1</v>
@@ -2345,13 +2346,13 @@
         <v>55</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>123</v>
+        <v>190</v>
       </c>
       <c r="G54" s="16">
         <v>8</v>
@@ -2370,13 +2371,13 @@
         <v>55</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>123</v>
+        <v>190</v>
       </c>
       <c r="G55" s="16">
         <v>12</v>
@@ -2395,13 +2396,13 @@
         <v>55</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>123</v>
+        <v>190</v>
       </c>
       <c r="G56" s="16">
         <v>3</v>
@@ -2420,13 +2421,13 @@
         <v>55</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>123</v>
+        <v>190</v>
       </c>
       <c r="G57" s="16">
         <v>3</v>
@@ -2445,13 +2446,13 @@
         <v>55</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>123</v>
+        <v>190</v>
       </c>
       <c r="G58" s="16">
         <v>11</v>
@@ -2470,13 +2471,13 @@
         <v>55</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F59" s="16" t="s">
-        <v>123</v>
+        <v>190</v>
       </c>
       <c r="G59" s="16">
         <v>5</v>
@@ -2495,13 +2496,13 @@
         <v>55</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>123</v>
+        <v>190</v>
       </c>
       <c r="G60" s="16">
         <v>3</v>
@@ -2520,13 +2521,13 @@
         <v>55</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>123</v>
+        <v>190</v>
       </c>
       <c r="G61" s="16">
         <v>1</v>
@@ -2545,13 +2546,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F62" s="16" t="s">
-        <v>123</v>
+        <v>190</v>
       </c>
       <c r="G62" s="16">
         <v>1</v>
@@ -2570,13 +2571,13 @@
         <v>55</v>
       </c>
       <c r="D63" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="E63" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="E63" s="16" t="s">
-        <v>174</v>
-      </c>
       <c r="F63" s="16" t="s">
-        <v>123</v>
+        <v>190</v>
       </c>
       <c r="G63" s="16">
         <v>1</v>
